--- a/INTLINE/data/134/DEUSTATIS/Population by area.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Population by area.xlsx
@@ -1,37 +1,270 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEU" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DEU" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Former territory of the Federal Republic1</t>
+  </si>
+  <si>
+    <t>New Länder and Berlin-East2</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>20113</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +279,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +298,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1184 +595,1022 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Year</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Former territory of the Federal Republic1</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>New Länder and Berlin-East2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
         <v>83167</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>66967</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>16200</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>83019</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>66823</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>16196</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>82792</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>66608</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>16184</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>82522</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>66365</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>16156</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>82176</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>66057</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>16118</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>81198</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>65223</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>15974</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>80767</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>64848</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>15919</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>80524</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>64619</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>15905</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>20113</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>80328</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>64429</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>15899</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
         <v>81752</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>65426</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>16326</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>81802</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>65422</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>16380</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>82002</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>65541</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>16461</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>82218</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>65664</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>16554</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
         <v>82315</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>65667</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>16648</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
         <v>82438</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>65698</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>16740</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
         <v>82501</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>65680</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>16821</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
         <v>82532</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>65619</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>16913</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
         <v>82537</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>65527</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>17009</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
         <v>82440</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>65323</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>17118</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
         <v>82260</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>67140</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>15120</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
         <v>82163</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>66946</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>15217</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
         <v>82037</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>66747</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>15290</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
         <v>82057</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>66688</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>15369</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
         <v>82012</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>66583</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>15429</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
         <v>81817</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>66342</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>15476</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
         <v>81539</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>66007</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>15531</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
         <v>81338</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>65740</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>15598</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
         <v>80975</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>65289</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>15685</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
         <v>80275</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>64485</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>15790</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
         <v>79753</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>63726</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>16028</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
         <v>79113</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>62679</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>16434</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
         <v>78390</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>61715</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>16675</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
         <v>77900</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>61238</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>16661</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
         <v>77780</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>61140</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>16640</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
         <v>77661</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>61020</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>16640</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
         <v>77709</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>61049</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>16660</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
         <v>78008</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>61307</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>16701</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
         <v>78248</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>61546</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>16702</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
         <v>78418</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>61713</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>16706</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
         <v>78397</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>61658</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>16740</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
         <v>78180</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>61439</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>16740</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
         <v>78073</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>61322</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>16751</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
         <v>78111</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>61353</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>16758</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
         <v>78209</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>61442</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>16767</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46">
         <v>78465</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>61645</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>16820</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47">
         <v>78882</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>61991</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>16891</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48">
         <v>79053</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>62101</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>16951</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49">
         <v>78821</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>61809</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>17011</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50">
         <v>78556</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>61503</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>17054</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51">
         <v>78069</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>61001</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>17068</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52">
         <v>78269</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>61195</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>17075</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53">
         <v>77550</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>60463</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>17087</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54">
         <v>77038</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>59948</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>17090</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
         <v>76864</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>59793</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>17071</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56">
         <v>76336</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>59297</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>17040</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
         <v>75591</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>58587</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>17004</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58">
         <v>75046</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>57865</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>17181</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59">
         <v>74383</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>57247</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>17136</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60">
         <v>73668</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>56589</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>17079</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
         <v>73147</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>55958</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>17188</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62">
         <v>72543</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>55257</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>17286</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>1958</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63">
         <v>72031</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>54719</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>17312</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64">
         <v>71475</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>54064</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>17411</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>1956</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65">
         <v>70943</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>53340</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>17604</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66">
         <v>71350</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>53518</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>17832</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67">
         <v>70945</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>52943</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>18002</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>1953</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68">
         <v>70566</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>52454</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>18112</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
         <v>70164</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>51864</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>18300</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>1951</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70">
         <v>69785</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>51435</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>18350</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
         <v>69346</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>50958</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>18388</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>1: From 2001 there is no difference between Berlin-West and Berlin-East. From 2001: without Berlin-West. 2: From 2001: Berlin-West included. 3: From 2011: Population based only on data from the 2011 Census.</t>
-        </is>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>